--- a/experiment result cnn/64_0.1_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/64_0.1_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05130370251448003</v>
+        <v>0.01656110994384841</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07485884974159139</v>
+        <v>0.009205338265238384</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05610581300440133</v>
+        <v>0.007469685805749476</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03526782170479315</v>
+        <v>0.008174047828519049</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04208286748567379</v>
+        <v>0.01272761788691731</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07446234617493862</v>
+        <v>0.01668951139528036</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05239009929700841</v>
+        <v>0.01496063284733209</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04800874420052328</v>
+        <v>0.01415236110853774</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.043084320394911</v>
+        <v>0.01145198040190373</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05646556486723291</v>
+        <v>0.01281217777018104</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08017235407066314</v>
+        <v>0.009709402105666353</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07466635187594803</v>
+        <v>0.01050413583875549</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08089634775205762</v>
+        <v>0.01246531823263745</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1145217761558998</v>
+        <v>0.004573119178490181</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05288435847038195</v>
+        <v>0.01372488595440804</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06077058945097182</v>
+        <v>0.01149122936993999</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0683687333064739</v>
+        <v>0.01084327976489334</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07214817404874183</v>
+        <v>0.01110503333832846</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0486626754321414</v>
+        <v>0.01411184475123873</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05584002082689706</v>
+        <v>0.01070234874769668</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05105641831178802</v>
+        <v>0.01011243692189938</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04112888764932996</v>
+        <v>0.008723504039331158</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06362335589314436</v>
+        <v>0.01064608707935444</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04811668008856419</v>
+        <v>0.01956594835299361</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0414894571802331</v>
+        <v>0.01465360897311649</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06204726952963875</v>
+        <v>0.01321725423916384</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04963213368354964</v>
+        <v>0.008277462684205126</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03305990458255677</v>
+        <v>0.01110453143754083</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0476129287933721</v>
+        <v>0.01828696011777554</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.054554440192523</v>
+        <v>0.005254512134394868</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05531985008484064</v>
+        <v>0.009846279532274894</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04708702049885793</v>
+        <v>0.01224312986444822</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08192778533787957</v>
+        <v>0.01070104797705367</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03145123171745414</v>
+        <v>0.01153361680550559</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03290850187822403</v>
+        <v>0.009347627207996395</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05924468811309701</v>
+        <v>0.007610136353853762</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03991643569401891</v>
+        <v>0.01065343736647472</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08367310989748004</v>
+        <v>0.01380338519556372</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02423897895647627</v>
+        <v>0.01700884552974683</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06510216217053363</v>
+        <v>0.01111181736499888</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0728604697510523</v>
+        <v>0.01755374239559929</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03805775405437679</v>
+        <v>0.01241840199636579</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02050683016094625</v>
+        <v>0.006664162734560548</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02555175322128269</v>
+        <v>0.009873222748083303</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02834961081681461</v>
+        <v>0.009876030706634372</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05838658194443018</v>
+        <v>0.009672964829122097</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06457595710790692</v>
+        <v>0.007755192517162601</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05891377101552968</v>
+        <v>0.01351602459866274</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.07162462979948854</v>
+        <v>0.01260200109689436</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.08110043026920169</v>
+        <v>0.01435096898823914</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03618125773020144</v>
+        <v>0.01457293873975029</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.04250539251168571</v>
+        <v>0.03951194075934125</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03606665778311642</v>
+        <v>0.01920803005655401</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04909695865382409</v>
+        <v>0.04035153498117959</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07161967189953884</v>
+        <v>0.01381286254938911</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0428833360737909</v>
+        <v>0.01541027881072654</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04671100319295181</v>
+        <v>0.02159164483889622</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06093028659486823</v>
+        <v>0.0286143888660993</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.09699160168064616</v>
+        <v>0.02683445617504573</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06790922295301555</v>
+        <v>0.01357963067220853</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03350822350070209</v>
+        <v>0.02284994632472722</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0439255194886178</v>
+        <v>0.02340779640461644</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07609559682154557</v>
+        <v>0.01776975311493501</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0259615784069917</v>
+        <v>0.06775939868702169</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.03823433454699698</v>
+        <v>0.02673076949042228</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04357759669150289</v>
+        <v>0.07908327076789362</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.03321575343933389</v>
+        <v>0.01713323878282618</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.04689251025105176</v>
+        <v>0.01207657589600368</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04761311623832832</v>
+        <v>0.01817500560783369</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.04657453456540694</v>
+        <v>0.02151033385724901</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.07718813636972638</v>
+        <v>0.04806439958821717</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06111719551852113</v>
+        <v>0.0268956186789459</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.05794185154283443</v>
+        <v>0.01999171763486574</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06647602042159931</v>
+        <v>0.02477723615253843</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02554343702764971</v>
+        <v>0.01980896521633154</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04757248886114528</v>
+        <v>0.04989465106146256</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06806683678799176</v>
+        <v>0.02102383626213602</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0367591633186794</v>
+        <v>0.03103248980198458</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03755248014827636</v>
+        <v>0.009774210608879872</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02874964829674257</v>
+        <v>0.04106602540004949</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02913039412017168</v>
+        <v>0.01540934625452975</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08909167979319139</v>
+        <v>0.02733728680768779</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.05150872178342</v>
+        <v>0.01749741778078148</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.08808563830246283</v>
+        <v>0.0177595816610424</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05861908612489197</v>
+        <v>0.02628863807682003</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06973446421689179</v>
+        <v>0.01381822428926895</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.08386616853474252</v>
+        <v>0.0153403821097264</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0749630446264625</v>
+        <v>0.007554811502106992</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02534063308217124</v>
+        <v>0.02028105503430145</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06266593782004626</v>
+        <v>0.01086739198412645</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.08736350561091792</v>
+        <v>0.05026472876350879</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.04971543205306672</v>
+        <v>0.03853004443780024</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09632748258002236</v>
+        <v>0.02589782094735179</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.06205517293167121</v>
+        <v>0.024304702079422</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.03525334820410059</v>
+        <v>0.01417155934190963</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.06842754558201418</v>
+        <v>0.0422803345659354</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04811062836848854</v>
+        <v>0.01973852529668652</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.03747810073282797</v>
+        <v>0.04815669415980387</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.06319657116154073</v>
+        <v>0.02256007536949857</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.04139124114933614</v>
+        <v>0.05372531344153277</v>
       </c>
     </row>
   </sheetData>
